--- a/result.xlsx
+++ b/result.xlsx
@@ -1,26 +1,525 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="阈值0.5" sheetId="1" r:id="rId1"/>
+    <sheet name="阈值0.5时分类" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="result" localSheetId="0">阈值0.5!$A$2:$F$203</definedName>
+    <definedName name="分类" localSheetId="1">阈值0.5时分类!$A$1:$T$6</definedName>
+  </definedNames>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="result" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="G:\dev\travel_xu\result.txt" comma="1">
+      <textFields count="6">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="分类" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="936" sourceFile="G:\dev\travel_xu\分类.txt" comma="1">
+      <textFields count="18">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="145">
+  <si>
+    <t>天安门广场</t>
+  </si>
+  <si>
+    <t>长安街</t>
+  </si>
+  <si>
+    <t>故宫</t>
+  </si>
+  <si>
+    <t>颐和园</t>
+  </si>
+  <si>
+    <t>北京大学</t>
+  </si>
+  <si>
+    <t>王府井</t>
+  </si>
+  <si>
+    <t>天安门</t>
+  </si>
+  <si>
+    <t>什刹海</t>
+  </si>
+  <si>
+    <t>南锣鼓巷</t>
+  </si>
+  <si>
+    <t>后海</t>
+  </si>
+  <si>
+    <t>奥林匹克公园</t>
+  </si>
+  <si>
+    <t>鸟巢</t>
+  </si>
+  <si>
+    <t>商业街</t>
+  </si>
+  <si>
+    <t>天坛</t>
+  </si>
+  <si>
+    <t>圆明园</t>
+  </si>
+  <si>
+    <t>王府井大街</t>
+  </si>
+  <si>
+    <t>水立方</t>
+  </si>
+  <si>
+    <t>王府井商业街</t>
+  </si>
+  <si>
+    <t>大学</t>
+  </si>
+  <si>
+    <t>前海</t>
+  </si>
+  <si>
+    <t>西海</t>
+  </si>
+  <si>
+    <t>恭王府</t>
+  </si>
+  <si>
+    <t>祈年殿</t>
+  </si>
+  <si>
+    <t>大栅栏</t>
+  </si>
+  <si>
+    <t>皇穹宇</t>
+  </si>
+  <si>
+    <t>北海公园</t>
+  </si>
+  <si>
+    <t>清华大学</t>
+  </si>
+  <si>
+    <t>箭楼</t>
+  </si>
+  <si>
+    <t>正阳门</t>
+  </si>
+  <si>
+    <t>文津街</t>
+  </si>
+  <si>
+    <t>烟袋斜街</t>
+  </si>
+  <si>
+    <t>人民大会堂</t>
+  </si>
+  <si>
+    <t>毛主席纪念堂</t>
+  </si>
+  <si>
+    <t>人民英雄纪念碑</t>
+  </si>
+  <si>
+    <t>景山公园</t>
+  </si>
+  <si>
+    <t>鸦儿胡同</t>
+  </si>
+  <si>
+    <t>安定门</t>
+  </si>
+  <si>
+    <t>雍和宫</t>
+  </si>
+  <si>
+    <t>国子监</t>
+  </si>
+  <si>
+    <t>什刹海茶艺酒吧街</t>
+  </si>
+  <si>
+    <t>茅盾故居</t>
+  </si>
+  <si>
+    <t>海洋馆</t>
+  </si>
+  <si>
+    <t>中华民族博物院</t>
+  </si>
+  <si>
+    <t>乾清宫</t>
+  </si>
+  <si>
+    <t>老舍茶馆</t>
+  </si>
+  <si>
+    <t>首都博物馆</t>
+  </si>
+  <si>
+    <t>中华民族园</t>
+  </si>
+  <si>
+    <t>动物园</t>
+  </si>
+  <si>
+    <t>龙潭湖公园</t>
+  </si>
+  <si>
+    <t>珍宝馆</t>
+  </si>
+  <si>
+    <t>午门</t>
+  </si>
+  <si>
+    <t>簋街</t>
+  </si>
+  <si>
+    <t>慕田峪长城</t>
+  </si>
+  <si>
+    <t>回音壁</t>
+  </si>
+  <si>
+    <t>太和门</t>
+  </si>
+  <si>
+    <t>皇极殿</t>
+  </si>
+  <si>
+    <t>蜡像馆</t>
+  </si>
+  <si>
+    <t>八达岭</t>
+  </si>
+  <si>
+    <t>南官房胡同</t>
+  </si>
+  <si>
+    <t>玉泉山</t>
+  </si>
+  <si>
+    <t>奥林匹克森林公园</t>
+  </si>
+  <si>
+    <t>乾清门</t>
+  </si>
+  <si>
+    <t>御花园</t>
+  </si>
+  <si>
+    <t>太庙</t>
+  </si>
+  <si>
+    <t>居庸关长城</t>
+  </si>
+  <si>
+    <t>太和殿</t>
+  </si>
+  <si>
+    <t>香山公园</t>
+  </si>
+  <si>
+    <t>西华门</t>
+  </si>
+  <si>
+    <t>法华寺</t>
+  </si>
+  <si>
+    <t>紫竹院公园</t>
+  </si>
+  <si>
+    <t>昆明湖</t>
+  </si>
+  <si>
+    <t>国家体育馆</t>
+  </si>
+  <si>
+    <t>食街</t>
+  </si>
+  <si>
+    <t>琉璃厂</t>
+  </si>
+  <si>
+    <t>升旗仪式</t>
+  </si>
+  <si>
+    <t>中和殿</t>
+  </si>
+  <si>
+    <t>东棉花胡同</t>
+  </si>
+  <si>
+    <t>方家胡同</t>
+  </si>
+  <si>
+    <t>中国历史博物馆</t>
+  </si>
+  <si>
+    <t>中华门</t>
+  </si>
+  <si>
+    <t>金水桥</t>
+  </si>
+  <si>
+    <t>陶然亭公园</t>
+  </si>
+  <si>
+    <t>中国人民大学</t>
+  </si>
+  <si>
+    <t>大观园</t>
+  </si>
+  <si>
+    <t>国家大剧院</t>
+  </si>
+  <si>
+    <t>银锭桥</t>
+  </si>
+  <si>
+    <t>地坛公园</t>
+  </si>
+  <si>
+    <t>灵境胡同</t>
+  </si>
+  <si>
+    <t>西什库教堂</t>
+  </si>
+  <si>
+    <t>乐天银泰百货</t>
+  </si>
+  <si>
+    <t>慈宁宫</t>
+  </si>
+  <si>
+    <t>交泰殿</t>
+  </si>
+  <si>
+    <t>乐寿堂</t>
+  </si>
+  <si>
+    <t>保和殿</t>
+  </si>
+  <si>
+    <t>坤宁宫</t>
+  </si>
+  <si>
+    <t>国家图书馆</t>
+  </si>
+  <si>
+    <t>钟鼓楼</t>
+  </si>
+  <si>
+    <t>储秀宫</t>
+  </si>
+  <si>
+    <t>荷花市场</t>
+  </si>
+  <si>
+    <t>十七孔桥</t>
+  </si>
+  <si>
+    <t>神武门</t>
+  </si>
+  <si>
+    <t>中国美术馆</t>
+  </si>
+  <si>
+    <t>仁寿殿</t>
+  </si>
+  <si>
+    <t>十三陵水库</t>
+  </si>
+  <si>
+    <t>野生动物园</t>
+  </si>
+  <si>
+    <t>隆福寺街</t>
+  </si>
+  <si>
+    <t>中央电视塔</t>
+  </si>
+  <si>
+    <t>佛香阁</t>
+  </si>
+  <si>
+    <t>梅兰芳纪念馆</t>
+  </si>
+  <si>
+    <t>南湖岛</t>
+  </si>
+  <si>
+    <t>三里屯</t>
+  </si>
+  <si>
+    <t>五道口</t>
+  </si>
+  <si>
+    <t>大栅栏商业街</t>
+  </si>
+  <si>
+    <t>东堤</t>
+  </si>
+  <si>
+    <t>明十三陵</t>
+  </si>
+  <si>
+    <t>五道营胡同</t>
+  </si>
+  <si>
+    <t>中山公园</t>
+  </si>
+  <si>
+    <t>革命军事博物馆</t>
+  </si>
+  <si>
+    <t>角楼</t>
+  </si>
+  <si>
+    <t>老舍故居</t>
+  </si>
+  <si>
+    <t>宋庆龄故居</t>
+  </si>
+  <si>
+    <t>菊儿胡同</t>
+  </si>
+  <si>
+    <t>紫光阁</t>
+  </si>
+  <si>
+    <t>展览馆</t>
+  </si>
+  <si>
+    <t>国家博物馆</t>
+  </si>
+  <si>
+    <t>宝钞胡同</t>
+  </si>
+  <si>
+    <t>世贸天阶</t>
+  </si>
+  <si>
+    <t>九龙壁</t>
+  </si>
+  <si>
+    <t>神乐署</t>
+  </si>
+  <si>
+    <t>天文馆</t>
+  </si>
+  <si>
+    <t>军事博物馆</t>
+  </si>
+  <si>
+    <t>纪晓岚故居</t>
+  </si>
+  <si>
+    <t>自然博物馆</t>
+  </si>
+  <si>
+    <t>银山塔林</t>
+  </si>
+  <si>
+    <t>德胜门箭楼</t>
+  </si>
+  <si>
+    <t>后三海</t>
+  </si>
+  <si>
+    <t>帽儿胡同</t>
+  </si>
+  <si>
+    <t>团城</t>
+  </si>
+  <si>
+    <t>丹陛桥</t>
+  </si>
+  <si>
+    <t>景点1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景点2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是不是景区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属于第几景区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -48,15 +547,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="result" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="分类" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +613,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +648,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +856,4252 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F122" sqref="F122"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="7" max="7" width="16.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.77546468400000002</v>
+      </c>
+      <c r="D2">
+        <v>0.75144092200000001</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.69264069299999997</v>
+      </c>
+      <c r="D3">
+        <v>0.59479553900000004</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0.64242424200000003</v>
+      </c>
+      <c r="D4">
+        <v>0.53458213300000001</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>0.68142548599999997</v>
+      </c>
+      <c r="D5">
+        <v>0.61681329399999996</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0.64214046800000002</v>
+      </c>
+      <c r="D6">
+        <v>0.41498559099999999</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.51282051299999998</v>
+      </c>
+      <c r="D7">
+        <v>0.34200743500000003</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.73660714299999996</v>
+      </c>
+      <c r="D8">
+        <v>0.49070631999999997</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0.655133929</v>
+      </c>
+      <c r="D9">
+        <v>0.42291066300000002</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>0.6484375</v>
+      </c>
+      <c r="D10">
+        <v>0.50303030299999996</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>0.54692931600000005</v>
+      </c>
+      <c r="D11">
+        <v>0.544405998</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>0.78986403000000005</v>
+      </c>
+      <c r="D12">
+        <v>0.74044032400000004</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>0.56118665000000001</v>
+      </c>
+      <c r="D13">
+        <v>0.52364475200000005</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>0.95838926199999996</v>
+      </c>
+      <c r="D14">
+        <v>0.90724269400000002</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>0.66352624500000001</v>
+      </c>
+      <c r="D15">
+        <v>0.44215246600000002</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.55316285300000001</v>
+      </c>
+      <c r="D16">
+        <v>0.30557620800000002</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>0.95962314900000001</v>
+      </c>
+      <c r="D17">
+        <v>0.76997840200000001</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>0.75235531600000005</v>
+      </c>
+      <c r="D18">
+        <v>0.54643206300000002</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0.86263736300000005</v>
+      </c>
+      <c r="D19">
+        <v>0.45244956800000002</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>0.68131868100000004</v>
+      </c>
+      <c r="D20">
+        <v>0.55295429200000001</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0.51236263699999995</v>
+      </c>
+      <c r="D21">
+        <v>0.27732341999999999</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>0.99386503100000001</v>
+      </c>
+      <c r="D22">
+        <v>0.82337992400000004</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>0.90950920199999996</v>
+      </c>
+      <c r="D23">
+        <v>0.79597315400000002</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0.95186335399999999</v>
+      </c>
+      <c r="D24">
+        <v>0.441642651</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25">
+        <v>0.90838509300000003</v>
+      </c>
+      <c r="D25">
+        <v>0.803571429</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>0.63819875800000003</v>
+      </c>
+      <c r="D26">
+        <v>0.45819398</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0.52484472000000004</v>
+      </c>
+      <c r="D27">
+        <v>0.25130111500000002</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>0.83138564299999995</v>
+      </c>
+      <c r="D28">
+        <v>0.48680351900000002</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>0.81803004999999995</v>
+      </c>
+      <c r="D29">
+        <v>0.529157667</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30">
+        <v>0.75459098499999999</v>
+      </c>
+      <c r="D30">
+        <v>0.60834454900000001</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>0.99331103700000001</v>
+      </c>
+      <c r="D31">
+        <v>0.68829664000000002</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <v>0.97826086999999995</v>
+      </c>
+      <c r="D32">
+        <v>0.72311495699999995</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>0.61371237499999998</v>
+      </c>
+      <c r="D33">
+        <v>0.42329873099999998</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>0.61511423600000004</v>
+      </c>
+      <c r="D34">
+        <v>0.40369088800000003</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>0.99824253100000004</v>
+      </c>
+      <c r="D35">
+        <v>0.65816917699999999</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <v>0.99824253100000004</v>
+      </c>
+      <c r="D36">
+        <v>0.70210136000000001</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37">
+        <v>0.99824253100000004</v>
+      </c>
+      <c r="D37">
+        <v>0.94983277600000005</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>0.90990990999999999</v>
+      </c>
+      <c r="D38">
+        <v>0.58516801900000004</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39">
+        <v>0.63783783800000005</v>
+      </c>
+      <c r="D39">
+        <v>0.43757725600000003</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40">
+        <v>0.56576576599999995</v>
+      </c>
+      <c r="D40">
+        <v>0.52508361199999998</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41">
+        <v>0.56216216200000002</v>
+      </c>
+      <c r="D41">
+        <v>0.35986159200000001</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42">
+        <v>0.55135135099999999</v>
+      </c>
+      <c r="D42">
+        <v>0.53778558899999995</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43">
+        <v>1.0018018019999999</v>
+      </c>
+      <c r="D43">
+        <v>0.49865470899999997</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0.61818181800000005</v>
+      </c>
+      <c r="D44">
+        <v>0.25278810400000001</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45">
+        <v>0.59636363599999997</v>
+      </c>
+      <c r="D45">
+        <v>0.294170404</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>0.99099099099999999</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>0.49327354299999998</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>0.69230769199999997</v>
+      </c>
+      <c r="D48">
+        <v>0.31948051900000002</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0.523452158</v>
+      </c>
+      <c r="D49">
+        <v>0.20743494400000001</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>0.51219512199999995</v>
+      </c>
+      <c r="D50">
+        <v>0.19668587900000001</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51">
+        <v>0.96428571399999996</v>
+      </c>
+      <c r="D51">
+        <v>0.69044414499999995</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <v>0.94924812000000003</v>
+      </c>
+      <c r="D52">
+        <v>0.54535637100000001</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>0.90977443599999996</v>
+      </c>
+      <c r="D53">
+        <v>0.47311828</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54">
+        <v>0.77255639099999995</v>
+      </c>
+      <c r="D54">
+        <v>0.68614357299999995</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55">
+        <v>0.91015625</v>
+      </c>
+      <c r="D55">
+        <v>0.41793722</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56">
+        <v>0.88671875</v>
+      </c>
+      <c r="D56">
+        <v>0.61103633899999998</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0.6484375</v>
+      </c>
+      <c r="D57">
+        <v>0.24684014900000001</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>0.568359375</v>
+      </c>
+      <c r="D58">
+        <v>0.209654179</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>28</v>
+      </c>
+      <c r="B59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59">
+        <v>0.954183267</v>
+      </c>
+      <c r="D59">
+        <v>0.935546875</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60">
+        <v>0.92828685300000002</v>
+      </c>
+      <c r="D60">
+        <v>0.41793722</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>28</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61">
+        <v>0.908366534</v>
+      </c>
+      <c r="D61">
+        <v>0.61372812899999996</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>28</v>
+      </c>
+      <c r="B62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0.69322709199999999</v>
+      </c>
+      <c r="D62">
+        <v>0.25873605900000002</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>28</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>0.591633466</v>
+      </c>
+      <c r="D63">
+        <v>0.213976945</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>29</v>
+      </c>
+      <c r="B64" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64">
+        <v>0.99792531100000004</v>
+      </c>
+      <c r="D64">
+        <v>0.90243902399999998</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>29</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>0.72199170099999999</v>
+      </c>
+      <c r="D65">
+        <v>0.301298701</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>29</v>
+      </c>
+      <c r="B66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0.54149377600000004</v>
+      </c>
+      <c r="D66">
+        <v>0.19405204500000001</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>29</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>0.537344398</v>
+      </c>
+      <c r="D67">
+        <v>0.18659942400000001</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>30</v>
+      </c>
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68">
+        <v>0.78983833699999995</v>
+      </c>
+      <c r="D68">
+        <v>0.39446366799999999</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>30</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69">
+        <v>0.77598152399999998</v>
+      </c>
+      <c r="D69">
+        <v>0.38933951300000003</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>30</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70">
+        <v>0.69515011500000001</v>
+      </c>
+      <c r="D70">
+        <v>0.372064277</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>30</v>
+      </c>
+      <c r="B71" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71">
+        <v>0.63048498799999997</v>
+      </c>
+      <c r="D71">
+        <v>0.45652173899999998</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>30</v>
+      </c>
+      <c r="B72" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72">
+        <v>0.602771363</v>
+      </c>
+      <c r="D72">
+        <v>0.45869947300000002</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>30</v>
+      </c>
+      <c r="B73" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73">
+        <v>0.54965357999999997</v>
+      </c>
+      <c r="D73">
+        <v>0.42882882900000002</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>31</v>
+      </c>
+      <c r="B74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0.966903073</v>
+      </c>
+      <c r="D74">
+        <v>0.30408921900000002</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>0.93853427899999997</v>
+      </c>
+      <c r="D75">
+        <v>0.28602305500000003</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>31</v>
+      </c>
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76">
+        <v>0.62174940899999998</v>
+      </c>
+      <c r="D76">
+        <v>0.29352678599999998</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>31</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2</v>
+      </c>
+      <c r="C77">
+        <v>0.59810874700000005</v>
+      </c>
+      <c r="D77">
+        <v>0.219047619</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>32</v>
+      </c>
+      <c r="B78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0.99759615400000001</v>
+      </c>
+      <c r="D78">
+        <v>0.308550186</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>32</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>0.82692307700000001</v>
+      </c>
+      <c r="D79">
+        <v>0.24783861700000001</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>32</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80">
+        <v>0.70913461499999997</v>
+      </c>
+      <c r="D80">
+        <v>0.255411255</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>32</v>
+      </c>
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81">
+        <v>0.66586538500000003</v>
+      </c>
+      <c r="D81">
+        <v>0.30915178599999998</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>32</v>
+      </c>
+      <c r="B82" t="s">
+        <v>31</v>
+      </c>
+      <c r="C82">
+        <v>0.52403846200000004</v>
+      </c>
+      <c r="D82">
+        <v>0.51536643000000004</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>33</v>
+      </c>
+      <c r="B83" t="s">
+        <v>32</v>
+      </c>
+      <c r="C83">
+        <v>0.93932038799999995</v>
+      </c>
+      <c r="D83">
+        <v>0.93028846200000004</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>33</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>0.83980582500000001</v>
+      </c>
+      <c r="D84">
+        <v>0.24927953899999999</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>33</v>
+      </c>
+      <c r="B85" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85">
+        <v>0.691747573</v>
+      </c>
+      <c r="D85">
+        <v>0.31808035699999998</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>33</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2</v>
+      </c>
+      <c r="C86">
+        <v>0.691747573</v>
+      </c>
+      <c r="D86">
+        <v>0.24675324700000001</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>33</v>
+      </c>
+      <c r="B87" t="s">
+        <v>31</v>
+      </c>
+      <c r="C87">
+        <v>0.52912621400000004</v>
+      </c>
+      <c r="D87">
+        <v>0.51536643000000004</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>33</v>
+      </c>
+      <c r="B88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>1.0024271840000001</v>
+      </c>
+      <c r="D88">
+        <v>0.30706319700000001</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>34</v>
+      </c>
+      <c r="B89" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89">
+        <v>0.97303921599999998</v>
+      </c>
+      <c r="D89">
+        <v>0.34372294399999997</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
+        <v>34</v>
+      </c>
+      <c r="B90" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0.66421568600000003</v>
+      </c>
+      <c r="D90">
+        <v>0.20148698900000001</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
+        <v>34</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>0.62990196099999995</v>
+      </c>
+      <c r="D91">
+        <v>0.185158501</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
+        <v>34</v>
+      </c>
+      <c r="B92" t="s">
+        <v>25</v>
+      </c>
+      <c r="C92">
+        <v>0.55882352899999999</v>
+      </c>
+      <c r="D92">
+        <v>0.42776735500000002</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
+        <v>34</v>
+      </c>
+      <c r="B93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93">
+        <v>0.54411764699999998</v>
+      </c>
+      <c r="D93">
+        <v>0.24776785700000001</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
+        <v>34</v>
+      </c>
+      <c r="B94" t="s">
+        <v>29</v>
+      </c>
+      <c r="C94">
+        <v>0.514705882</v>
+      </c>
+      <c r="D94">
+        <v>0.43568464699999998</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>35</v>
+      </c>
+      <c r="B95" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95">
+        <v>0.81081081099999996</v>
+      </c>
+      <c r="D95">
+        <v>0.38062283699999999</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>35</v>
+      </c>
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96">
+        <v>0.77149877099999997</v>
+      </c>
+      <c r="D96">
+        <v>0.36384704499999998</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>35</v>
+      </c>
+      <c r="B97" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97">
+        <v>0.685503686</v>
+      </c>
+      <c r="D97">
+        <v>0.34487021000000001</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>35</v>
+      </c>
+      <c r="B98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C98">
+        <v>0.63636363600000001</v>
+      </c>
+      <c r="D98">
+        <v>0.43311036800000002</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>35</v>
+      </c>
+      <c r="B99" t="s">
+        <v>20</v>
+      </c>
+      <c r="C99">
+        <v>0.61670761699999999</v>
+      </c>
+      <c r="D99">
+        <v>0.44112477999999999</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>35</v>
+      </c>
+      <c r="B100" t="s">
+        <v>21</v>
+      </c>
+      <c r="C100">
+        <v>0.54545454500000001</v>
+      </c>
+      <c r="D100">
+        <v>0.4</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
+        <v>35</v>
+      </c>
+      <c r="B101" t="s">
+        <v>30</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>0.93995381099999997</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
+        <v>36</v>
+      </c>
+      <c r="B102" t="s">
+        <v>37</v>
+      </c>
+      <c r="C102">
+        <v>0.76701570699999999</v>
+      </c>
+      <c r="D102">
+        <v>0.55283018900000003</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
+        <v>38</v>
+      </c>
+      <c r="B103" t="s">
+        <v>37</v>
+      </c>
+      <c r="C103">
+        <v>0.88888888899999996</v>
+      </c>
+      <c r="D103">
+        <v>0.61886792499999999</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
+        <v>38</v>
+      </c>
+      <c r="B104" t="s">
+        <v>36</v>
+      </c>
+      <c r="C104">
+        <v>0.85094850899999996</v>
+      </c>
+      <c r="D104">
+        <v>0.821989529</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
+        <v>39</v>
+      </c>
+      <c r="B105" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>1.2360939E-2</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
+        <v>40</v>
+      </c>
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106">
+        <v>0.88888888899999996</v>
+      </c>
+      <c r="D106">
+        <v>1.8454440999999999E-2</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
+        <v>41</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>0.192307692</v>
+      </c>
+      <c r="D107">
+        <v>7.2046109999999997E-3</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
+        <v>42</v>
+      </c>
+      <c r="B108" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108">
+        <v>0.86363636399999999</v>
+      </c>
+      <c r="D108">
+        <v>2.4142312999999999E-2</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
+        <v>43</v>
+      </c>
+      <c r="B109" t="s">
+        <v>2</v>
+      </c>
+      <c r="C109">
+        <v>1.0133333330000001</v>
+      </c>
+      <c r="D109">
+        <v>6.5800866E-2</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A110" t="s">
+        <v>44</v>
+      </c>
+      <c r="B110" t="s">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>0.921875</v>
+      </c>
+      <c r="D110">
+        <v>4.3866171000000002E-2</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
+        <v>45</v>
+      </c>
+      <c r="B111" t="s">
+        <v>38</v>
+      </c>
+      <c r="C111">
+        <v>0.79166666699999999</v>
+      </c>
+      <c r="D111">
+        <v>0.46341463399999999</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
+        <v>46</v>
+      </c>
+      <c r="B112" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112">
+        <v>0.83333333300000001</v>
+      </c>
+      <c r="D112">
+        <v>2.5412961000000001E-2</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A113" t="s">
+        <v>47</v>
+      </c>
+      <c r="B113" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113">
+        <v>0.26111111100000001</v>
+      </c>
+      <c r="D113">
+        <v>5.0755939999999999E-2</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A114" t="s">
+        <v>48</v>
+      </c>
+      <c r="B114" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>9.8654710000000007E-3</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
+        <v>49</v>
+      </c>
+      <c r="B115" t="s">
+        <v>2</v>
+      </c>
+      <c r="C115">
+        <v>0.97368421100000002</v>
+      </c>
+      <c r="D115">
+        <v>6.4069264000000001E-2</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A116" t="s">
+        <v>50</v>
+      </c>
+      <c r="B116" t="s">
+        <v>2</v>
+      </c>
+      <c r="C116">
+        <v>0.991304348</v>
+      </c>
+      <c r="D116">
+        <v>9.8701299000000006E-2</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
+        <v>51</v>
+      </c>
+      <c r="B117" t="s">
+        <v>37</v>
+      </c>
+      <c r="C117">
+        <v>0.407692308</v>
+      </c>
+      <c r="D117">
+        <v>0.2</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A118" t="s">
+        <v>52</v>
+      </c>
+      <c r="B118" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118">
+        <v>0.28947368400000001</v>
+      </c>
+      <c r="D118">
+        <v>1.3977128E-2</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A119" t="s">
+        <v>53</v>
+      </c>
+      <c r="B119" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119">
+        <v>1.014084507</v>
+      </c>
+      <c r="D119">
+        <v>6.4573990999999997E-2</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A120" t="s">
+        <v>54</v>
+      </c>
+      <c r="B120" t="s">
+        <v>2</v>
+      </c>
+      <c r="C120">
+        <v>1.0153846150000001</v>
+      </c>
+      <c r="D120">
+        <v>5.7142856999999998E-2</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A121" t="s">
+        <v>55</v>
+      </c>
+      <c r="B121" t="s">
+        <v>2</v>
+      </c>
+      <c r="C121">
+        <v>1.0555555560000001</v>
+      </c>
+      <c r="D121">
+        <v>1.6450216E-2</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A122" t="s">
+        <v>56</v>
+      </c>
+      <c r="B122" t="s">
+        <v>57</v>
+      </c>
+      <c r="C122">
+        <v>0.65517241400000004</v>
+      </c>
+      <c r="D122">
+        <v>2.7065526999999999E-2</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A123" t="s">
+        <v>58</v>
+      </c>
+      <c r="B123" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>1.4833127E-2</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A124" t="s">
+        <v>59</v>
+      </c>
+      <c r="B124" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124">
+        <v>1.02</v>
+      </c>
+      <c r="D124">
+        <v>5.5075593999999999E-2</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A125" t="s">
+        <v>60</v>
+      </c>
+      <c r="B125" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125">
+        <v>0.985611511</v>
+      </c>
+      <c r="D125">
+        <v>0.18389261700000001</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A126" t="s">
+        <v>61</v>
+      </c>
+      <c r="B126" t="s">
+        <v>2</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>5.8874458999999997E-2</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A127" t="s">
+        <v>62</v>
+      </c>
+      <c r="B127" t="s">
+        <v>2</v>
+      </c>
+      <c r="C127">
+        <v>0.98850574700000005</v>
+      </c>
+      <c r="D127">
+        <v>7.4458873999999994E-2</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A128" t="s">
+        <v>63</v>
+      </c>
+      <c r="B128" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128">
+        <v>1.0243902439999999</v>
+      </c>
+      <c r="D128">
+        <v>4.6875E-2</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A129" t="s">
+        <v>64</v>
+      </c>
+      <c r="B129" t="s">
+        <v>57</v>
+      </c>
+      <c r="C129">
+        <v>0.81735159800000001</v>
+      </c>
+      <c r="D129">
+        <v>0.25498575499999998</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A130" t="s">
+        <v>65</v>
+      </c>
+      <c r="B130" t="s">
+        <v>2</v>
+      </c>
+      <c r="C130">
+        <v>1.023809524</v>
+      </c>
+      <c r="D130">
+        <v>3.7229436999999997E-2</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A131" t="s">
+        <v>66</v>
+      </c>
+      <c r="B131" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131">
+        <v>0.485714286</v>
+      </c>
+      <c r="D131">
+        <v>3.6717063000000001E-2</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A132" t="s">
+        <v>67</v>
+      </c>
+      <c r="B132" t="s">
+        <v>2</v>
+      </c>
+      <c r="C132">
+        <v>0.96666666700000003</v>
+      </c>
+      <c r="D132">
+        <v>2.5108225000000001E-2</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A133" t="s">
+        <v>68</v>
+      </c>
+      <c r="B133" t="s">
+        <v>13</v>
+      </c>
+      <c r="C133">
+        <v>0.92</v>
+      </c>
+      <c r="D133">
+        <v>2.0627803E-2</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A134" t="s">
+        <v>69</v>
+      </c>
+      <c r="B134" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134">
+        <v>0.47826087</v>
+      </c>
+      <c r="D134">
+        <v>1.187905E-2</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A135" t="s">
+        <v>70</v>
+      </c>
+      <c r="B135" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135">
+        <v>0.98989899000000003</v>
+      </c>
+      <c r="D135">
+        <v>0.10583153300000001</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A136" t="s">
+        <v>71</v>
+      </c>
+      <c r="B136" t="s">
+        <v>10</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136">
+        <v>5.1006711000000003E-2</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A137" t="s">
+        <v>72</v>
+      </c>
+      <c r="B137" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137">
+        <v>0.46666666699999998</v>
+      </c>
+      <c r="D137">
+        <v>1.511879E-2</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A138" t="s">
+        <v>73</v>
+      </c>
+      <c r="B138" t="s">
+        <v>13</v>
+      </c>
+      <c r="C138">
+        <v>0.58333333300000001</v>
+      </c>
+      <c r="D138">
+        <v>6.2780269E-2</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A139" t="s">
+        <v>74</v>
+      </c>
+      <c r="B139" t="s">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>0.94285714300000001</v>
+      </c>
+      <c r="D139">
+        <v>4.9070632000000003E-2</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A140" t="s">
+        <v>75</v>
+      </c>
+      <c r="B140" t="s">
+        <v>2</v>
+      </c>
+      <c r="C140">
+        <v>1.0357142859999999</v>
+      </c>
+      <c r="D140">
+        <v>2.5108225000000001E-2</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A141" t="s">
+        <v>76</v>
+      </c>
+      <c r="B141" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>1.2687428000000001E-2</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A142" t="s">
+        <v>77</v>
+      </c>
+      <c r="B142" t="s">
+        <v>37</v>
+      </c>
+      <c r="C142">
+        <v>0.83333333300000001</v>
+      </c>
+      <c r="D142">
+        <v>5.6603774000000003E-2</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A143" t="s">
+        <v>78</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>0.16426513000000001</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A144" t="s">
+        <v>79</v>
+      </c>
+      <c r="B144" t="s">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>0.92307692299999999</v>
+      </c>
+      <c r="D144">
+        <v>8.9219329999999999E-3</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A145" t="s">
+        <v>80</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145">
+        <v>1.8731988000000001E-2</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A146" t="s">
+        <v>81</v>
+      </c>
+      <c r="B146" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146">
+        <v>0.71428571399999996</v>
+      </c>
+      <c r="D146">
+        <v>1.793722E-2</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A147" t="s">
+        <v>82</v>
+      </c>
+      <c r="B147" t="s">
+        <v>18</v>
+      </c>
+      <c r="C147">
+        <v>0.88888888899999996</v>
+      </c>
+      <c r="D147">
+        <v>2.6711184999999998E-2</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A148" t="s">
+        <v>83</v>
+      </c>
+      <c r="B148" t="s">
+        <v>13</v>
+      </c>
+      <c r="C148">
+        <v>0.63636363600000001</v>
+      </c>
+      <c r="D148">
+        <v>3.1390135E-2</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A149" t="s">
+        <v>84</v>
+      </c>
+      <c r="B149" t="s">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>0.89937106899999997</v>
+      </c>
+      <c r="D149">
+        <v>0.106319703</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A150" t="s">
+        <v>85</v>
+      </c>
+      <c r="B150" t="s">
+        <v>9</v>
+      </c>
+      <c r="C150">
+        <v>0.89655172400000005</v>
+      </c>
+      <c r="D150">
+        <v>9.6415327999999995E-2</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A151" t="s">
+        <v>86</v>
+      </c>
+      <c r="B151" t="s">
+        <v>36</v>
+      </c>
+      <c r="C151">
+        <v>0.80808080800000004</v>
+      </c>
+      <c r="D151">
+        <v>0.20942408400000001</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A152" t="s">
+        <v>87</v>
+      </c>
+      <c r="B152" t="s">
+        <v>4</v>
+      </c>
+      <c r="C152">
+        <v>0.96129032299999995</v>
+      </c>
+      <c r="D152">
+        <v>0.145650049</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A153" t="s">
+        <v>88</v>
+      </c>
+      <c r="B153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153">
+        <v>0.48</v>
+      </c>
+      <c r="D153">
+        <v>1.3377926E-2</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A154" t="s">
+        <v>89</v>
+      </c>
+      <c r="B154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154">
+        <v>1.1148272000000001E-2</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A155" t="s">
+        <v>90</v>
+      </c>
+      <c r="B155" t="s">
+        <v>2</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155">
+        <v>9.5238100000000006E-3</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A156" t="s">
+        <v>91</v>
+      </c>
+      <c r="B156" t="s">
+        <v>2</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156">
+        <v>5.5411255E-2</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A157" t="s">
+        <v>92</v>
+      </c>
+      <c r="B157" t="s">
+        <v>3</v>
+      </c>
+      <c r="C157">
+        <v>0.98734177199999995</v>
+      </c>
+      <c r="D157">
+        <v>8.4233261000000004E-2</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A158" t="s">
+        <v>93</v>
+      </c>
+      <c r="B158" t="s">
+        <v>2</v>
+      </c>
+      <c r="C158">
+        <v>1.0270270269999999</v>
+      </c>
+      <c r="D158">
+        <v>3.2900433E-2</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A159" t="s">
+        <v>94</v>
+      </c>
+      <c r="B159" t="s">
+        <v>2</v>
+      </c>
+      <c r="C159">
+        <v>1.0133333330000001</v>
+      </c>
+      <c r="D159">
+        <v>6.5800866E-2</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A160" t="s">
+        <v>95</v>
+      </c>
+      <c r="B160" t="s">
+        <v>18</v>
+      </c>
+      <c r="C160">
+        <v>0.40506329099999999</v>
+      </c>
+      <c r="D160">
+        <v>5.3422371000000003E-2</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A161" t="s">
+        <v>96</v>
+      </c>
+      <c r="B161" t="s">
+        <v>8</v>
+      </c>
+      <c r="C161">
+        <v>0.47368421100000002</v>
+      </c>
+      <c r="D161">
+        <v>5.1903114E-2</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A162" t="s">
+        <v>97</v>
+      </c>
+      <c r="B162" t="s">
+        <v>2</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="D162">
+        <v>1.9047618999999998E-2</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A163" t="s">
+        <v>98</v>
+      </c>
+      <c r="B163" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163">
+        <v>0.96491228100000004</v>
+      </c>
+      <c r="D163">
+        <v>6.3731170000000004E-2</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A164" t="s">
+        <v>99</v>
+      </c>
+      <c r="B164" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164">
+        <v>1.012987013</v>
+      </c>
+      <c r="D164">
+        <v>8.4233261000000004E-2</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A165" t="s">
+        <v>100</v>
+      </c>
+      <c r="B165" t="s">
+        <v>2</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165">
+        <v>8.8311687999999999E-2</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A166" t="s">
+        <v>101</v>
+      </c>
+      <c r="B166" t="s">
+        <v>17</v>
+      </c>
+      <c r="C166">
+        <v>0.54545454500000001</v>
+      </c>
+      <c r="D166">
+        <v>3.7267081000000001E-2</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A167" t="s">
+        <v>102</v>
+      </c>
+      <c r="B167" t="s">
+        <v>3</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+      <c r="D167">
+        <v>8.4233261000000004E-2</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A168" t="s">
+        <v>103</v>
+      </c>
+      <c r="B168" t="s">
+        <v>57</v>
+      </c>
+      <c r="C168">
+        <v>0.909090909</v>
+      </c>
+      <c r="D168">
+        <v>4.2735043E-2</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A169" t="s">
+        <v>104</v>
+      </c>
+      <c r="B169" t="s">
+        <v>57</v>
+      </c>
+      <c r="C169">
+        <v>0.875</v>
+      </c>
+      <c r="D169">
+        <v>1.9943019999999999E-2</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A170" t="s">
+        <v>105</v>
+      </c>
+      <c r="B170" t="s">
+        <v>12</v>
+      </c>
+      <c r="C170">
+        <v>0.78571428600000004</v>
+      </c>
+      <c r="D170">
+        <v>1.4804845000000001E-2</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A171" t="s">
+        <v>106</v>
+      </c>
+      <c r="B171" t="s">
+        <v>3</v>
+      </c>
+      <c r="C171">
+        <v>0.32758620700000002</v>
+      </c>
+      <c r="D171">
+        <v>2.0518359E-2</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A172" t="s">
+        <v>107</v>
+      </c>
+      <c r="B172" t="s">
+        <v>3</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172">
+        <v>0.120950324</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A173" t="s">
+        <v>108</v>
+      </c>
+      <c r="B173" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173">
+        <v>0.94736842099999996</v>
+      </c>
+      <c r="D173">
+        <v>2.0857474000000001E-2</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A174" t="s">
+        <v>109</v>
+      </c>
+      <c r="B174" t="s">
+        <v>3</v>
+      </c>
+      <c r="C174">
+        <v>1.0149253730000001</v>
+      </c>
+      <c r="D174">
+        <v>7.3434125000000003E-2</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A175" t="s">
+        <v>110</v>
+      </c>
+      <c r="B175" t="s">
+        <v>3</v>
+      </c>
+      <c r="C175">
+        <v>0.207627119</v>
+      </c>
+      <c r="D175">
+        <v>5.2915767000000002E-2</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A176" t="s">
+        <v>111</v>
+      </c>
+      <c r="B176" t="s">
+        <v>3</v>
+      </c>
+      <c r="C176">
+        <v>0.73913043499999997</v>
+      </c>
+      <c r="D176">
+        <v>5.5075593999999999E-2</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A177" t="s">
+        <v>112</v>
+      </c>
+      <c r="B177" t="s">
+        <v>23</v>
+      </c>
+      <c r="C177">
+        <v>0.86666666699999995</v>
+      </c>
+      <c r="D177">
+        <v>0.189090909</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A178" t="s">
+        <v>113</v>
+      </c>
+      <c r="B178" t="s">
+        <v>3</v>
+      </c>
+      <c r="C178">
+        <v>1.071428571</v>
+      </c>
+      <c r="D178">
+        <v>1.6198704000000001E-2</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A179" t="s">
+        <v>114</v>
+      </c>
+      <c r="B179" t="s">
+        <v>57</v>
+      </c>
+      <c r="C179">
+        <v>0.89320388299999998</v>
+      </c>
+      <c r="D179">
+        <v>0.26210826199999998</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A180" t="s">
+        <v>115</v>
+      </c>
+      <c r="B180" t="s">
+        <v>37</v>
+      </c>
+      <c r="C180">
+        <v>0.83333333300000001</v>
+      </c>
+      <c r="D180">
+        <v>3.7735849000000002E-2</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A181" t="s">
+        <v>116</v>
+      </c>
+      <c r="B181" t="s">
+        <v>2</v>
+      </c>
+      <c r="C181">
+        <v>0.89830508499999995</v>
+      </c>
+      <c r="D181">
+        <v>4.5887445999999998E-2</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A182" t="s">
+        <v>117</v>
+      </c>
+      <c r="B182" t="s">
+        <v>0</v>
+      </c>
+      <c r="C182">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="D182">
+        <v>8.1784389999999992E-3</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A183" t="s">
+        <v>118</v>
+      </c>
+      <c r="B183" t="s">
+        <v>2</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+      <c r="D183">
+        <v>1.6450216E-2</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A184" t="s">
+        <v>119</v>
+      </c>
+      <c r="B184" t="s">
+        <v>21</v>
+      </c>
+      <c r="C184">
+        <v>0.78571428600000004</v>
+      </c>
+      <c r="D184">
+        <v>1.9819819999999998E-2</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A185" t="s">
+        <v>120</v>
+      </c>
+      <c r="B185" t="s">
+        <v>7</v>
+      </c>
+      <c r="C185">
+        <v>0.82352941199999996</v>
+      </c>
+      <c r="D185">
+        <v>0.113557358</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A186" t="s">
+        <v>121</v>
+      </c>
+      <c r="B186" t="s">
+        <v>8</v>
+      </c>
+      <c r="C186">
+        <v>0.71830985899999999</v>
+      </c>
+      <c r="D186">
+        <v>5.8823528999999999E-2</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A187" t="s">
+        <v>122</v>
+      </c>
+      <c r="B187" t="s">
+        <v>2</v>
+      </c>
+      <c r="C187">
+        <v>0.74193548399999998</v>
+      </c>
+      <c r="D187">
+        <v>1.9913420000000001E-2</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A188" t="s">
+        <v>123</v>
+      </c>
+      <c r="B188" t="s">
+        <v>3</v>
+      </c>
+      <c r="C188">
+        <v>0.50769230799999998</v>
+      </c>
+      <c r="D188">
+        <v>3.5637149E-2</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A189" t="s">
+        <v>124</v>
+      </c>
+      <c r="B189" t="s">
+        <v>0</v>
+      </c>
+      <c r="C189">
+        <v>0.97047970500000003</v>
+      </c>
+      <c r="D189">
+        <v>0.195539033</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A190" t="s">
+        <v>125</v>
+      </c>
+      <c r="B190" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190">
+        <v>0.696969697</v>
+      </c>
+      <c r="D190">
+        <v>2.6528257999999999E-2</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A191" t="s">
+        <v>126</v>
+      </c>
+      <c r="B191" t="s">
+        <v>1</v>
+      </c>
+      <c r="C191">
+        <v>0.42647058799999998</v>
+      </c>
+      <c r="D191">
+        <v>2.0893372E-2</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A192" t="s">
+        <v>127</v>
+      </c>
+      <c r="B192" t="s">
+        <v>2</v>
+      </c>
+      <c r="C192">
+        <v>0.89130434800000002</v>
+      </c>
+      <c r="D192">
+        <v>3.5497834999999998E-2</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A193" t="s">
+        <v>128</v>
+      </c>
+      <c r="B193" t="s">
+        <v>13</v>
+      </c>
+      <c r="C193">
+        <v>1.0344827590000001</v>
+      </c>
+      <c r="D193">
+        <v>2.6905829999999999E-2</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A194" t="s">
+        <v>129</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1</v>
+      </c>
+      <c r="C194">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="D194">
+        <v>7.925072E-3</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A195" t="s">
+        <v>130</v>
+      </c>
+      <c r="B195" t="s">
+        <v>1</v>
+      </c>
+      <c r="C195">
+        <v>0.28048780499999998</v>
+      </c>
+      <c r="D195">
+        <v>1.6570604999999999E-2</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A196" t="s">
+        <v>131</v>
+      </c>
+      <c r="B196" t="s">
+        <v>13</v>
+      </c>
+      <c r="C196">
+        <v>0.63636363600000001</v>
+      </c>
+      <c r="D196">
+        <v>1.8834080999999999E-2</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A197" t="s">
+        <v>132</v>
+      </c>
+      <c r="B197" t="s">
+        <v>13</v>
+      </c>
+      <c r="C197">
+        <v>0.91666666699999999</v>
+      </c>
+      <c r="D197">
+        <v>4.9327353999999997E-2</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A198" t="s">
+        <v>133</v>
+      </c>
+      <c r="B198" t="s">
+        <v>57</v>
+      </c>
+      <c r="C198">
+        <v>0.90116279099999996</v>
+      </c>
+      <c r="D198">
+        <v>0.220797721</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A199" t="s">
+        <v>134</v>
+      </c>
+      <c r="B199" t="s">
+        <v>57</v>
+      </c>
+      <c r="C199">
+        <v>0.95</v>
+      </c>
+      <c r="D199">
+        <v>2.7065526999999999E-2</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A200" t="s">
+        <v>135</v>
+      </c>
+      <c r="B200" t="s">
+        <v>7</v>
+      </c>
+      <c r="C200">
+        <v>1.0064102559999999</v>
+      </c>
+      <c r="D200">
+        <v>0.181923523</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A201" t="s">
+        <v>136</v>
+      </c>
+      <c r="B201" t="s">
+        <v>8</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+      <c r="D201">
+        <v>3.2295271E-2</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A202" t="s">
+        <v>137</v>
+      </c>
+      <c r="B202" t="s">
+        <v>25</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+      <c r="D202">
+        <v>2.2514071E-2</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A203" t="s">
+        <v>138</v>
+      </c>
+      <c r="B203" t="s">
+        <v>13</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="D203">
+        <v>2.0627803E-2</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>